--- a/Practicals/NEP Practical - Probability for computing.xlsx
+++ b/Practicals/NEP Practical - Probability for computing.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Probability for Computing\Practicals\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF34D16-A8FE-4121-8884-A4D79E427163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Practical 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Practical 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +28,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>1. Plotting and fitting of Binomial distribution and graphical representation of probabilities</t>
+  </si>
+  <si>
+    <t>Number of Trials</t>
+  </si>
+  <si>
+    <t>Probability of Success</t>
+  </si>
+  <si>
+    <t>Number of successes</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>P(X)</t>
+  </si>
+  <si>
+    <t>2. Plotting and fitting of Poisson distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>Mistakes</t>
+  </si>
+  <si>
+    <t>No of Days</t>
+  </si>
+  <si>
+    <t>fi*xi</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Theoritical Frequency</t>
+  </si>
+  <si>
+    <t>sigma(fi)</t>
+  </si>
+  <si>
+    <t>Sigma(fi*xi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +121,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +314,2388 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Binomial Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Practical 1'!$N$20:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Practical 1'!$O$20:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0485760000000014E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.572864E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0616832000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2467328000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11147673600000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20065812480000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25082265600000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21499084800000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12093235200000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0310783999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0466176E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BAC-432E-976E-9465AAA677AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597967183"/>
+        <c:axId val="597953743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597967183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of success</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597953743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="597953743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597967183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Practical 2'!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$I$9:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$J$9:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0220-4BFA-8717-EDF5BF9A2591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Practical 2'!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$I$9:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$M$9:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4106557527523455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36548361994958745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16264021087756642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8249929227011379E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.073560925301003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.910938447035786E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8345586964364144E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0220-4BFA-8717-EDF5BF9A2591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Practical 2'!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$I$9:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Practical 2'!$N$9:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0220-4BFA-8717-EDF5BF9A2591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503176128"/>
+        <c:axId val="503177088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503176128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503177088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503177088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503176128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306989</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>592739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26805</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2074B6-F20D-4DA4-BE1A-06829B128DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA6B25F-70C7-476A-98E5-8A06EC1FE088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Practical 1"/>
+      <sheetName val="Practical 2"/>
+      <sheetName val="Practical 3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="N20">
+            <v>0</v>
+          </cell>
+          <cell r="O20">
+            <v>1.0485760000000014E-4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>1</v>
+          </cell>
+          <cell r="O21">
+            <v>1.572864E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>2</v>
+          </cell>
+          <cell r="O22">
+            <v>1.0616832000000007E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>3</v>
+          </cell>
+          <cell r="O23">
+            <v>4.2467328000000006E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>4</v>
+          </cell>
+          <cell r="O24">
+            <v>0.11147673600000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>5</v>
+          </cell>
+          <cell r="O25">
+            <v>0.20065812480000006</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>6</v>
+          </cell>
+          <cell r="O26">
+            <v>0.25082265600000009</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>7</v>
+          </cell>
+          <cell r="O27">
+            <v>0.21499084800000007</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>8</v>
+          </cell>
+          <cell r="O28">
+            <v>0.12093235200000005</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>9</v>
+          </cell>
+          <cell r="O29">
+            <v>4.0310783999999981E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="N30">
+            <v>10</v>
+          </cell>
+          <cell r="O30">
+            <v>6.0466176E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="8">
+          <cell r="M8" t="str">
+            <v>Probability</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>143</v>
+          </cell>
+          <cell r="M9">
+            <v>0.4106557527523455</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>90</v>
+          </cell>
+          <cell r="M10">
+            <v>0.36548361994958745</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>42</v>
+          </cell>
+          <cell r="M11">
+            <v>0.16264021087756642</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>12</v>
+          </cell>
+          <cell r="M12">
+            <v>4.8249929227011379E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>9</v>
+          </cell>
+          <cell r="M13">
+            <v>1.073560925301003E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>3</v>
+          </cell>
+          <cell r="M14">
+            <v>1.910938447035786E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+          <cell r="M15">
+            <v>2.8345586964364144E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2960,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="M11:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:X35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="11" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M15" s="7"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M17" s="7"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M18" s="7"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M19" s="7"/>
+      <c r="N19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M20" s="7"/>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" ref="O20:O30" si="0">_xlfn.BINOM.DIST(N20,$P$16,$T$16,FALSE)</f>
+        <v>1.0485760000000014E-4</v>
+      </c>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M21" s="7"/>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="0"/>
+        <v>1.572864E-3</v>
+      </c>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M22" s="7"/>
+      <c r="N22" s="11">
+        <v>2</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0616832000000007E-2</v>
+      </c>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M23" s="7"/>
+      <c r="N23" s="11">
+        <v>3</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2467328000000006E-2</v>
+      </c>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M24" s="7"/>
+      <c r="N24" s="11">
+        <v>4</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11147673600000005</v>
+      </c>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M25" s="7"/>
+      <c r="N25" s="11">
+        <v>5</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.20065812480000006</v>
+      </c>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M26" s="7"/>
+      <c r="N26" s="11">
+        <v>6</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25082265600000009</v>
+      </c>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M27" s="7"/>
+      <c r="N27" s="11">
+        <v>7</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21499084800000007</v>
+      </c>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M28" s="7"/>
+      <c r="N28" s="11">
+        <v>8</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12093235200000005</v>
+      </c>
+      <c r="X28" s="8"/>
+    </row>
+    <row r="29" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M29" s="7"/>
+      <c r="N29" s="11">
+        <v>9</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0310783999999981E-2</v>
+      </c>
+      <c r="X29" s="8"/>
+    </row>
+    <row r="30" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M30" s="7"/>
+      <c r="N30" s="11">
+        <v>10</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="0"/>
+        <v>6.0466176E-3</v>
+      </c>
+      <c r="X30" s="8"/>
+    </row>
+    <row r="31" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M31" s="7"/>
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M32" s="7"/>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M33" s="7"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M34" s="7"/>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M12:X14"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A4005C-5D16-4083-A090-CB55F54AD7B2}">
+  <dimension ref="E1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E3" s="7"/>
+      <c r="F3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E4" s="7"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="7"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="7"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E7" s="7"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E8" s="7"/>
+      <c r="G8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E9" s="7"/>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
+        <v>143</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25">
+        <f>G9*I9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25">
+        <f>POISSON(G9,$I$18,FALSE)</f>
+        <v>0.4106557527523455</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25">
+        <f>$I$16*M9</f>
+        <v>123.19672582570365</v>
+      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E10" s="7"/>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25">
+        <v>90</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
+        <f t="shared" ref="K10:K15" si="0">G10*I10</f>
+        <v>90</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25">
+        <f t="shared" ref="M10:M15" si="1">POISSON(G10,$I$18,FALSE)</f>
+        <v>0.36548361994958745</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25">
+        <f t="shared" ref="O10:O15" si="2">$I$16*M10</f>
+        <v>109.64508598487623</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E11" s="7"/>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25">
+        <v>42</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.16264021087756642</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25">
+        <f t="shared" si="2"/>
+        <v>48.792063263269924</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E12" s="7"/>
+      <c r="G12" s="25">
+        <v>3</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25">
+        <v>12</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25">
+        <f t="shared" si="1"/>
+        <v>4.8249929227011379E-2</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25">
+        <f t="shared" si="2"/>
+        <v>14.474978768103414</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E13" s="7"/>
+      <c r="G13" s="25">
+        <v>4</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25">
+        <v>9</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25">
+        <f t="shared" si="1"/>
+        <v>1.073560925301003E-2</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25">
+        <f t="shared" si="2"/>
+        <v>3.220682775903009</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E14" s="7"/>
+      <c r="G14" s="25">
+        <v>5</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
+        <v>3</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>1.910938447035786E-3</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25">
+        <f t="shared" si="2"/>
+        <v>0.57328153411073579</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E15" s="7"/>
+      <c r="G15" s="25">
+        <v>6</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25">
+        <f t="shared" si="1"/>
+        <v>2.8345586964364144E-4</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25">
+        <f t="shared" si="2"/>
+        <v>8.5036760893092436E-2</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E16" s="7"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11">
+        <f>SUM(I9:I15)</f>
+        <v>300</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="11">
+        <f>SUM(K9:K15)</f>
+        <v>267</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E17" s="7"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E18" s="7"/>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="11">
+        <f>K16/I16</f>
+        <v>0.89</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E20" s="7"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E25" s="7"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E26" s="7"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E27" s="7"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E28" s="7"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E29" s="7"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E30" s="7"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E31" s="7"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E32" s="7"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E33" s="7"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E34" s="7"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="F3:P5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Practicals/NEP Practical - Probability for computing.xlsx
+++ b/Practicals/NEP Practical - Probability for computing.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Probability for Computing\Practicals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF34D16-A8FE-4121-8884-A4D79E427163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986BE00A-3975-4E6C-861D-9A9AAB3317D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Practical 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Practical 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Practical 4" sheetId="3" r:id="rId3"/>
+    <sheet name="Practical 6-final" sheetId="4" r:id="rId4"/>
+    <sheet name="Practical 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Practical 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Practical 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>1. Plotting and fitting of Binomial distribution and graphical representation of probabilities</t>
   </si>
@@ -47,9 +52,6 @@
   </si>
   <si>
     <t>P(X)</t>
-  </si>
-  <si>
-    <t>2. Plotting and fitting of Poisson distribution and graphical representation of probabilities.</t>
   </si>
   <si>
     <t>Mistakes</t>
@@ -75,12 +77,111 @@
   <si>
     <t xml:space="preserve">mean </t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>P(x)</t>
+  </si>
+  <si>
+    <t>4. Plotting and fitting of Geometric distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>3. Plotting and fitting of Poisson distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>uniform deis a = 120 b = 170; 150;</t>
+  </si>
+  <si>
+    <t>2. Plotting and fitting of multinomial distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>Multinomial Distribution : It describes the probability of obtaining a specific no. of counts for k differnet outcomes has a fixed probability of occurrence.   P = n!p1^x1 p2^x2 ... pk^xk/x1!x2!...xk!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ques: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If a bag contains 8 balls, 3 red, 1 green, 4 blue. Two balls are drawn and experiment is repeated for 10 times. What is the probability that 4 red and 6 blue balls are drawn.</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p1^x1</t>
+  </si>
+  <si>
+    <t>p2^x2</t>
+  </si>
+  <si>
+    <t>p3^x3</t>
+  </si>
+  <si>
+    <t>A new customer enter a shopr every two minutes on an average. After a customer arrives find the probability a new customer arrive in exactly 1 minutes.</t>
+  </si>
+  <si>
+    <t>Probaility</t>
+  </si>
+  <si>
+    <t>Suppose an earthequake occurs every 400 days in a  certain region on average. After an eearthquake occurs find the probability that it will take exsctly 500 days for the next earthquake to occur</t>
+  </si>
+  <si>
+    <t>Suppose a call center receive a new call every 10 minutes on an average. Find the probability that a new customer calls within 10 and 15 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability </t>
+  </si>
+  <si>
+    <t>6. Plotting and fitting of exponential distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>f(x) = λ*e^(-λ*x)</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>f(1)</t>
+  </si>
+  <si>
+    <t>7. Plotting and fitting of Normal distribution and graphical representation of probabilities.</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +205,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -240,12 +347,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,29 +434,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,6 +1483,1881 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 4'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Practical 4'!$G$11:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Practical 4'!$H$11:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0171-4A99-8FB6-CF958CA878ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788987727"/>
+        <c:axId val="788975727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788987727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788975727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788975727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788987727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 6-final'!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Practical 6-final'!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Practical 6-final'!$J$15:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.048374180359596E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1873075307798193E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4081822068171793E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7032004603563941E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0653065971263347E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4881163609402643E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9658530379140947E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4932896411722156E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0656965974059912E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6787944117144235E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D998-4A8C-AD3E-C383B89971B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1238813471"/>
+        <c:axId val="1238813951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1238813471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238813951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1238813951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1238813471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0544874272867004E-2"/>
+          <c:y val="0.19217899790939014"/>
+          <c:w val="0.895530310627772"/>
+          <c:h val="0.6916039453745032"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 7'!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Practical 7'!$I$12:$I$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 7'!$J$12:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>0.12167250457438125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14558565762265402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17247128941430825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20232838096364303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23507893142883482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27056301223583412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3486791709387379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39059147543357498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43381616738909634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47784793565821782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52215206434178218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56618383261090366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60940852456642502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6513208290612621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72943698776416588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76492106857116515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79767161903635697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82752871058569177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85441434237734604</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87832749542561872</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89933610400849928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9175667301260455</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94642224648386375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95748536460956002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96662349241518275</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97407906064215699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98008731225022472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98486985998976417</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98863008951181564</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99155029378774917</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99379033467422384</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99548757167680479</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99675777390167231</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99769673386830415</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99838232487269718</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99887678009749681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99922901521552998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99947686135399738</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99964911779853205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99976737092096446</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99984755600126451</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99990126144766434</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99993679076813158</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9999600074033147</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9999749923587411</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99998454570311768</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99999056158371513</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99999430343717777</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99999660232687526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99999799738813666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99999883359207409</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99999932867154417</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99999961819343297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99999978543016121</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99999988084714664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9999999346200501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99999996455269147</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999998101043752</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99999998994841854</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99999999474301704</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999999728345623</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999999861301991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99999999930033068</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999999965127717</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999999982827681</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999999991645228</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999999995984001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.9999999999809277</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99999999999105127</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99999999999585176</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999999999810019</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99999999999914047</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999999999961575</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99999999999983036</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99999999999992595</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99999999999996814</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99999999999998646</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99999999999999434</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99999999999999767</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C4D-40BD-880E-584CEE0FBBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1232566351"/>
+        <c:axId val="1232570671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1232566351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232570671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1232570671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232566351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1407,6 +3438,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2420,6 +4571,1554 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2509,6 +6208,129 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7612CA50-E2BE-F4B8-B17F-A11D9317005F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157291</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4607E6B2-8910-BFF0-CBE2-967C2BB14376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>178398</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465577</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E165496-6C8B-ABB3-A0DF-AC9307488DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2631,65 +6453,81 @@
       </sheetData>
       <sheetData sheetId="2">
         <row r="8">
+          <cell r="J8"/>
           <cell r="M8" t="str">
             <v>Probability</v>
           </cell>
+          <cell r="N8"/>
         </row>
         <row r="9">
           <cell r="I9">
             <v>143</v>
           </cell>
+          <cell r="J9"/>
           <cell r="M9">
             <v>0.4106557527523455</v>
           </cell>
+          <cell r="N9"/>
         </row>
         <row r="10">
           <cell r="I10">
             <v>90</v>
           </cell>
+          <cell r="J10"/>
           <cell r="M10">
             <v>0.36548361994958745</v>
           </cell>
+          <cell r="N10"/>
         </row>
         <row r="11">
           <cell r="I11">
             <v>42</v>
           </cell>
+          <cell r="J11"/>
           <cell r="M11">
             <v>0.16264021087756642</v>
           </cell>
+          <cell r="N11"/>
         </row>
         <row r="12">
           <cell r="I12">
             <v>12</v>
           </cell>
+          <cell r="J12"/>
           <cell r="M12">
             <v>4.8249929227011379E-2</v>
           </cell>
+          <cell r="N12"/>
         </row>
         <row r="13">
           <cell r="I13">
             <v>9</v>
           </cell>
+          <cell r="J13"/>
           <cell r="M13">
             <v>1.073560925301003E-2</v>
           </cell>
+          <cell r="N13"/>
         </row>
         <row r="14">
           <cell r="I14">
             <v>3</v>
           </cell>
+          <cell r="J14"/>
           <cell r="M14">
             <v>1.910938447035786E-3</v>
           </cell>
+          <cell r="N14"/>
         </row>
         <row r="15">
           <cell r="I15">
             <v>1</v>
           </cell>
+          <cell r="J15"/>
           <cell r="M15">
             <v>2.8345586964364144E-4</v>
           </cell>
+          <cell r="N15"/>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -2963,7 +6801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M11:X35"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
+    <sheetView topLeftCell="H16" zoomScale="82" workbookViewId="0">
       <selection activeCell="M12" sqref="M12:X35"/>
     </sheetView>
   </sheetViews>
@@ -2971,248 +6809,248 @@
   <sheetData>
     <row r="11" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="3"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
     </row>
     <row r="13" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="6"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="27"/>
     </row>
     <row r="14" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
     </row>
     <row r="15" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M15" s="7"/>
-      <c r="X15" s="8"/>
+      <c r="M15" s="1"/>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="3">
         <v>10</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11">
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="3">
         <v>0.6</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="12">
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M17" s="7"/>
-      <c r="X17" s="8"/>
+      <c r="M17" s="1"/>
+      <c r="X17" s="2"/>
     </row>
     <row r="18" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="M18" s="1"/>
+      <c r="X18" s="2"/>
     </row>
     <row r="19" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M19" s="7"/>
-      <c r="N19" s="13" t="s">
+      <c r="M19" s="1"/>
+      <c r="N19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="15"/>
-      <c r="X19" s="8"/>
+      <c r="Q19" s="7"/>
+      <c r="X19" s="2"/>
     </row>
     <row r="20" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M20" s="7"/>
-      <c r="N20" s="11">
+      <c r="M20" s="1"/>
+      <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="3">
         <f t="shared" ref="O20:O30" si="0">_xlfn.BINOM.DIST(N20,$P$16,$T$16,FALSE)</f>
         <v>1.0485760000000014E-4</v>
       </c>
-      <c r="X20" s="8"/>
+      <c r="X20" s="2"/>
     </row>
     <row r="21" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M21" s="7"/>
-      <c r="N21" s="11">
+      <c r="M21" s="1"/>
+      <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="3">
         <f t="shared" si="0"/>
         <v>1.572864E-3</v>
       </c>
-      <c r="X21" s="8"/>
+      <c r="X21" s="2"/>
     </row>
     <row r="22" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M22" s="7"/>
-      <c r="N22" s="11">
+      <c r="M22" s="1"/>
+      <c r="N22" s="3">
         <v>2</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="3">
         <f t="shared" si="0"/>
         <v>1.0616832000000007E-2</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M23" s="7"/>
-      <c r="N23" s="11">
+      <c r="M23" s="1"/>
+      <c r="N23" s="3">
         <v>3</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="3">
         <f t="shared" si="0"/>
         <v>4.2467328000000006E-2</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="X23" s="2"/>
     </row>
     <row r="24" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M24" s="7"/>
-      <c r="N24" s="11">
+      <c r="M24" s="1"/>
+      <c r="N24" s="3">
         <v>4</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="3">
         <f t="shared" si="0"/>
         <v>0.11147673600000005</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="X24" s="2"/>
     </row>
     <row r="25" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M25" s="7"/>
-      <c r="N25" s="11">
+      <c r="M25" s="1"/>
+      <c r="N25" s="3">
         <v>5</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="3">
         <f t="shared" si="0"/>
         <v>0.20065812480000006</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="X25" s="2"/>
     </row>
     <row r="26" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M26" s="7"/>
-      <c r="N26" s="11">
+      <c r="M26" s="1"/>
+      <c r="N26" s="3">
         <v>6</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="3">
         <f t="shared" si="0"/>
         <v>0.25082265600000009</v>
       </c>
-      <c r="X26" s="8"/>
+      <c r="X26" s="2"/>
     </row>
     <row r="27" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M27" s="7"/>
-      <c r="N27" s="11">
+      <c r="M27" s="1"/>
+      <c r="N27" s="3">
         <v>7</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="3">
         <f t="shared" si="0"/>
         <v>0.21499084800000007</v>
       </c>
-      <c r="X27" s="8"/>
+      <c r="X27" s="2"/>
     </row>
     <row r="28" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M28" s="7"/>
-      <c r="N28" s="11">
+      <c r="M28" s="1"/>
+      <c r="N28" s="3">
         <v>8</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="3">
         <f t="shared" si="0"/>
         <v>0.12093235200000005</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="2"/>
     </row>
     <row r="29" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M29" s="7"/>
-      <c r="N29" s="11">
+      <c r="M29" s="1"/>
+      <c r="N29" s="3">
         <v>9</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="3">
         <f t="shared" si="0"/>
         <v>4.0310783999999981E-2</v>
       </c>
-      <c r="X29" s="8"/>
+      <c r="X29" s="2"/>
     </row>
     <row r="30" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M30" s="7"/>
-      <c r="N30" s="11">
+      <c r="M30" s="1"/>
+      <c r="N30" s="3">
         <v>10</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="3">
         <f t="shared" si="0"/>
         <v>6.0466176E-3</v>
       </c>
-      <c r="X30" s="8"/>
+      <c r="X30" s="2"/>
     </row>
     <row r="31" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M31" s="7"/>
-      <c r="X31" s="8"/>
+      <c r="M31" s="1"/>
+      <c r="X31" s="2"/>
     </row>
     <row r="32" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M32" s="7"/>
-      <c r="X32" s="8"/>
+      <c r="M32" s="1"/>
+      <c r="X32" s="2"/>
     </row>
     <row r="33" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M33" s="7"/>
-      <c r="X33" s="8"/>
+      <c r="M33" s="1"/>
+      <c r="X33" s="2"/>
     </row>
     <row r="34" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M34" s="7"/>
-      <c r="X34" s="8"/>
+      <c r="M34" s="1"/>
+      <c r="X34" s="2"/>
     </row>
     <row r="35" spans="13:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="18"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3230,409 +7068,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A4005C-5D16-4083-A090-CB55F54AD7B2}">
   <dimension ref="E1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="C11" zoomScale="96" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E3" s="7"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="1"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+      <c r="G8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E4" s="7"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="7"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="7"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E7" s="7"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E8" s="7"/>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24" t="s">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E9" s="7"/>
-      <c r="G9" s="25">
+      <c r="E9" s="1"/>
+      <c r="G9" s="33">
         <v>0</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25">
+      <c r="H9" s="33"/>
+      <c r="I9" s="33">
         <v>143</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25">
+      <c r="J9" s="33"/>
+      <c r="K9" s="33">
         <f>G9*I9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25">
+      <c r="L9" s="33"/>
+      <c r="M9" s="33">
         <f>POISSON(G9,$I$18,FALSE)</f>
         <v>0.4106557527523455</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33">
         <f>$I$16*M9</f>
         <v>123.19672582570365</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E10" s="7"/>
-      <c r="G10" s="25">
+      <c r="E10" s="1"/>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33">
         <v>90</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25">
+      <c r="J10" s="33"/>
+      <c r="K10" s="33">
         <f t="shared" ref="K10:K15" si="0">G10*I10</f>
         <v>90</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25">
+      <c r="L10" s="33"/>
+      <c r="M10" s="33">
         <f t="shared" ref="M10:M15" si="1">POISSON(G10,$I$18,FALSE)</f>
         <v>0.36548361994958745</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33">
         <f t="shared" ref="O10:O15" si="2">$I$16*M10</f>
         <v>109.64508598487623</v>
       </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E11" s="7"/>
-      <c r="G11" s="25">
+      <c r="E11" s="1"/>
+      <c r="G11" s="33">
         <v>2</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25">
+      <c r="H11" s="33"/>
+      <c r="I11" s="33">
         <v>42</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25">
+      <c r="J11" s="33"/>
+      <c r="K11" s="33">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25">
+      <c r="L11" s="33"/>
+      <c r="M11" s="33">
         <f t="shared" si="1"/>
         <v>0.16264021087756642</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25">
+      <c r="N11" s="33"/>
+      <c r="O11" s="33">
         <f t="shared" si="2"/>
         <v>48.792063263269924</v>
       </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E12" s="7"/>
-      <c r="G12" s="25">
+      <c r="E12" s="1"/>
+      <c r="G12" s="33">
         <v>3</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33">
         <v>12</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25">
+      <c r="L12" s="33"/>
+      <c r="M12" s="33">
         <f t="shared" si="1"/>
         <v>4.8249929227011379E-2</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25">
+      <c r="N12" s="33"/>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
         <v>14.474978768103414</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E13" s="7"/>
-      <c r="G13" s="25">
+      <c r="E13" s="1"/>
+      <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25">
+      <c r="H13" s="33"/>
+      <c r="I13" s="33">
         <v>9</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25">
+      <c r="J13" s="33"/>
+      <c r="K13" s="33">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25">
+      <c r="L13" s="33"/>
+      <c r="M13" s="33">
         <f t="shared" si="1"/>
         <v>1.073560925301003E-2</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25">
+      <c r="N13" s="33"/>
+      <c r="O13" s="33">
         <f t="shared" si="2"/>
         <v>3.220682775903009</v>
       </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E14" s="7"/>
-      <c r="G14" s="25">
+      <c r="E14" s="1"/>
+      <c r="G14" s="33">
         <v>5</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33">
         <v>3</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25">
+      <c r="J14" s="33"/>
+      <c r="K14" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25">
+      <c r="L14" s="33"/>
+      <c r="M14" s="33">
         <f t="shared" si="1"/>
         <v>1.910938447035786E-3</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33">
         <f t="shared" si="2"/>
         <v>0.57328153411073579</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E15" s="7"/>
-      <c r="G15" s="25">
+      <c r="E15" s="1"/>
+      <c r="G15" s="33">
         <v>6</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25">
+      <c r="H15" s="33"/>
+      <c r="I15" s="33">
         <v>1</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25">
+      <c r="J15" s="33"/>
+      <c r="K15" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
+      <c r="L15" s="33"/>
+      <c r="M15" s="33">
         <f t="shared" si="1"/>
         <v>2.8345586964364144E-4</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25">
+      <c r="N15" s="33"/>
+      <c r="O15" s="33">
         <f t="shared" si="2"/>
         <v>8.5036760893092436E-2</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E16" s="7"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="E16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3">
         <f>SUM(I9:I15)</f>
         <v>300</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3">
         <f>SUM(K9:K15)</f>
         <v>267</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="Q16" s="8"/>
+      <c r="L16" s="3"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E17" s="7"/>
-      <c r="Q17" s="8"/>
+      <c r="E17" s="1"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E18" s="7"/>
-      <c r="H18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="11">
+      <c r="E18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
         <f>K16/I16</f>
         <v>0.89</v>
       </c>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E19" s="7"/>
-      <c r="Q19" s="8"/>
+      <c r="E19" s="1"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E20" s="7"/>
-      <c r="Q20" s="8"/>
+      <c r="E20" s="1"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E21" s="7"/>
-      <c r="Q21" s="8"/>
+      <c r="E21" s="1"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E22" s="7"/>
-      <c r="Q22" s="8"/>
+      <c r="E22" s="1"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E23" s="7"/>
-      <c r="Q23" s="8"/>
+      <c r="E23" s="1"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E24" s="7"/>
-      <c r="Q24" s="8"/>
+      <c r="E24" s="1"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E25" s="7"/>
-      <c r="Q25" s="8"/>
+      <c r="E25" s="1"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E26" s="7"/>
-      <c r="Q26" s="8"/>
+      <c r="E26" s="1"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E27" s="7"/>
-      <c r="Q27" s="8"/>
+      <c r="E27" s="1"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E28" s="7"/>
-      <c r="Q28" s="8"/>
+      <c r="E28" s="1"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E29" s="7"/>
-      <c r="Q29" s="8"/>
+      <c r="E29" s="1"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E30" s="7"/>
-      <c r="Q30" s="8"/>
+      <c r="E30" s="1"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E31" s="7"/>
-      <c r="Q31" s="8"/>
+      <c r="E31" s="1"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E32" s="7"/>
-      <c r="Q32" s="8"/>
+      <c r="E32" s="1"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E33" s="7"/>
-      <c r="Q33" s="8"/>
+      <c r="E33" s="1"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E34" s="7"/>
-      <c r="Q34" s="8"/>
+      <c r="E34" s="1"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="18"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -3668,15 +7506,2211 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="F3:P5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DCE3B1-EE83-4015-B792-66C04B5867CE}">
+  <dimension ref="F4:P15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="6:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <f>POWER($L$8,G11)*POWER(1-$L$8,$H$8-G11)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" ref="H12:H15" si="0">POWER($L$8,G12)*POWER(1-$L$8,$H$8-G12)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AD5C56-046B-4544-BAB3-42AD2F1243E5}">
+  <dimension ref="F4:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="78" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="6:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="6:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="11" spans="6:16" ht="25" x14ac:dyDescent="0.5">
+      <c r="J11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <f>$K$11*EXP(-$K$11*1)</f>
+        <v>9.048374180359596E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>$K$11*EXP(-$K$11*I15)</f>
+        <v>9.048374180359596E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J24" si="0">$K$11*EXP(-$K$11*I16)</f>
+        <v>8.1873075307798193E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>7.4081822068171793E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>6.7032004603563941E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>6.0653065971263347E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>5.4881163609402643E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>4.9658530379140947E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>4.4932896411722156E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>4.0656965974059912E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>3.6787944117144235E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:P6"/>
+    <mergeCell ref="F8:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12D4F5B-1137-4B6D-BE7B-FBD0E67DBDCE}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="95" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <f>MULTINOMIAL(J19:J21)</f>
+        <v>209.99999999999977</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="17">
+        <f>POWER(J22,J19)</f>
+        <v>1.9775390625E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="17">
+        <f t="shared" ref="O20:O21" si="0">POWER(J23,J20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <f>M19*O19*O20*O21</f>
+        <v>6.4888000488281181E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F4:P6"/>
+    <mergeCell ref="F8:P11"/>
+    <mergeCell ref="G13:P15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7640F197-B13B-469B-8FBD-226BB33C0198}">
+  <dimension ref="E3:P19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D5" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <f>_xlfn.EXPON.DIST(1,0.5,FALSE)</f>
+        <v>0.30326532985631671</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <f>_xlfn.EXPON.DIST(500,0.0025,FALSE)</f>
+        <v>7.1626199215047521E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <f>_xlfn.EXPON.DIST(15,0.1,TRUE) - _xlfn.EXPON.DIST(10,0.1,TRUE)</f>
+        <v>0.14474928102301254</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:P6"/>
+    <mergeCell ref="F10:P12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFE725-F2C4-42F4-8E9D-3918BA4001E3}">
+  <dimension ref="G5:Q165"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="65" workbookViewId="0">
+      <selection activeCell="J165" sqref="I11:J165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="7:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="7:17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f>_xlfn.NORM.DIST(I12,$K$9,$K$10,TRUE)</f>
+        <v>0.12167250457438125</v>
+      </c>
+    </row>
+    <row r="13" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J76" si="0">_xlfn.NORM.DIST(I13,$K$9,$K$10,TRUE)</f>
+        <v>0.14558565762265402</v>
+      </c>
+    </row>
+    <row r="14" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.17247128941430825</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.20232838096364303</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.23507893142883482</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.27056301223583412</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>70</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.30853753872598688</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.3486791709387379</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.39059147543357498</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.43381616738909634</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>110</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.47784793565821782</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>120</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.52215206434178218</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>130</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.56618383261090366</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>140</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.60940852456642502</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>150</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.6513208290612621</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>160</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.69146246127401312</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>170</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.72943698776416588</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>180</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.76492106857116515</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <v>190</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.79767161903635697</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.82752871058569177</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <v>210</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.85441434237734604</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>220</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.87832749542561872</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>230</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.89933610400849928</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <v>240</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.9175667301260455</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <v>250</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.93319279873114191</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>260</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.94642224648386375</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <v>270</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.95748536460956002</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <v>280</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.96662349241518275</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <v>290</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.97407906064215699</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <v>300</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0.98008731225022472</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>310</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0.98486985998976417</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>320</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0.98863008951181564</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>330</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0.99155029378774917</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>340</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0.99379033467422384</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>350</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.99548757167680479</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>360</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0.99675777390167231</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>370</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.99769673386830415</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>380</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.99838232487269718</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>390</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0.99887678009749681</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>400</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0.99922901521552998</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>410</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.99947686135399738</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>420</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0.99964911779853205</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>430</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0.99976737092096446</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <v>440</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0.99984755600126451</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>450</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0.99990126144766434</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>460</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.99993679076813158</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <v>470</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.9999600074033147</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>480</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0.9999749923587411</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>490</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0.99998454570311768</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>500</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0.99999056158371513</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <v>510</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0.99999430343717777</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <v>520</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0.99999660232687526</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <v>530</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0.99999799738813666</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <v>540</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0.99999883359207409</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <v>550</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0.99999932867154417</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <v>560</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>0.99999961819343297</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <v>570</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>0.99999978543016121</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <v>580</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>0.99999988084714664</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <v>590</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="0"/>
+        <v>0.9999999346200501</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <v>600</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="0"/>
+        <v>0.99999996455269147</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>610</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="0"/>
+        <v>0.99999998101043752</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <v>620</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="0"/>
+        <v>0.99999998994841854</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <v>630</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="0"/>
+        <v>0.99999999474301704</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <v>640</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="0"/>
+        <v>0.99999999728345623</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <v>650</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="0"/>
+        <v>0.99999999861301991</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <v>660</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J140" si="1">_xlfn.NORM.DIST(I77,$K$9,$K$10,TRUE)</f>
+        <v>0.99999999930033068</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <v>670</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0.99999999965127717</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <v>680</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>0.99999999982827681</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <v>690</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>0.99999999991645228</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <v>700</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>0.99999999995984001</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I82">
+        <v>710</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>0.9999999999809277</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I83">
+        <v>720</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>0.99999999999105127</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I84">
+        <v>730</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>0.99999999999585176</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I85">
+        <v>740</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>0.99999999999810019</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I86">
+        <v>750</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>0.99999999999914047</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <v>760</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>0.99999999999961575</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I88">
+        <v>770</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>0.99999999999983036</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I89">
+        <v>780</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>0.99999999999992595</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I90">
+        <v>790</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>0.99999999999996814</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I91">
+        <v>800</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>0.99999999999998646</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I92">
+        <v>810</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999434</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I93">
+        <v>820</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999767</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I94">
+        <v>830</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I95">
+        <v>840</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I96">
+        <v>850</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I97">
+        <v>860</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I98">
+        <v>870</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I99">
+        <v>880</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I100">
+        <v>890</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I101">
+        <v>900</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I102">
+        <v>910</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I103">
+        <v>920</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I104">
+        <v>930</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I105">
+        <v>940</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I106">
+        <v>950</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I107">
+        <v>960</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I108">
+        <v>970</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I109">
+        <v>980</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I110">
+        <v>990</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I111">
+        <v>1000</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I112">
+        <v>1010</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I113">
+        <v>1020</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I114">
+        <v>1030</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I115">
+        <v>1040</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I116">
+        <v>1050</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I117">
+        <v>1060</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I118">
+        <v>1070</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I119">
+        <v>1080</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I120">
+        <v>1090</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I121">
+        <v>1100</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I122">
+        <v>1110</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I123">
+        <v>1120</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I124">
+        <v>1130</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I125">
+        <v>1140</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I126">
+        <v>1150</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I127">
+        <v>1160</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I128">
+        <v>1170</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I129">
+        <v>1180</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I130">
+        <v>1190</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I131">
+        <v>1200</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I132">
+        <v>1210</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I133">
+        <v>1220</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I134">
+        <v>1230</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I135">
+        <v>1240</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I136">
+        <v>1250</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I137">
+        <v>1260</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I138">
+        <v>1270</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I139">
+        <v>1280</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I140">
+        <v>1290</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I141">
+        <v>1300</v>
+      </c>
+      <c r="J141">
+        <f t="shared" ref="J141:J165" si="2">_xlfn.NORM.DIST(I141,$K$9,$K$10,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I142">
+        <v>1310</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I143">
+        <v>1320</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I144">
+        <v>1330</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I145">
+        <v>1340</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I146">
+        <v>1350</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I147">
+        <v>1360</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I148">
+        <v>1370</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I149">
+        <v>1380</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I150">
+        <v>1390</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I151">
+        <v>1400</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I152">
+        <v>1410</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I153">
+        <v>1420</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I154">
+        <v>1430</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I155">
+        <v>1440</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I156">
+        <v>1450</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I157">
+        <v>1460</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I158">
+        <v>1470</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I159">
+        <v>1480</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I160">
+        <v>1490</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I161">
+        <v>1500</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I162">
+        <v>1510</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I163">
+        <v>1520</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I164">
+        <v>1530</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I165">
+        <v>1540</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G5:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
